--- a/Example ELISA data.xlsx
+++ b/Example ELISA data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Althea/Documents/University of Chicago/2020 Summer DataCamp/HW03(sandra)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{987CB9AD-C59A-404C-A2A6-E56C5C4C268E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FF33F3-3C85-5A4D-91FA-8F51D0D3C65F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="14440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate set up" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="264">
   <si>
     <t>ELISA Albumin Calculation Sheet - Only Change what is in yellow</t>
   </si>
@@ -859,12 +859,6 @@
     <t>Std 7.8</t>
   </si>
   <si>
-    <t xml:space="preserve">6463 - G0-10/G1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6605 - G0-76/G2 </t>
-  </si>
-  <si>
     <t>IFN #58.1 - 6444 - G0-76/G1 - D7 (7/24)</t>
   </si>
   <si>
@@ -887,6 +881,108 @@
   </si>
   <si>
     <t>R^2 = 0.9995</t>
+  </si>
+  <si>
+    <t>6445 G0-76/G1 - D7 (7/24)</t>
+  </si>
+  <si>
+    <t>6446 G0-76/G1 - D7 (7/24)</t>
+  </si>
+  <si>
+    <t>6463 - G0-10/G1 - D7 (7/24)</t>
+  </si>
+  <si>
+    <t>6464 G0-76/G1 - D7 (7/24)</t>
+  </si>
+  <si>
+    <t>6465 G0-76/G1 - D7 (7/24)</t>
+  </si>
+  <si>
+    <t>6605 - G0-76/G2 - D7 (7/24)</t>
+  </si>
+  <si>
+    <t>6606 G0-76/G1 - D7 (7/24)</t>
+  </si>
+  <si>
+    <t>6607 G0-76/G1 - D7 (7/24)</t>
+  </si>
+  <si>
+    <t>6445 - G0-76/G1 - D14 (7/31)</t>
+  </si>
+  <si>
+    <t>6446 - G0-76/G1 - D14 (7/31)</t>
+  </si>
+  <si>
+    <t>6463 - G0-10/G1 - D14 (7/31)</t>
+  </si>
+  <si>
+    <t>6464 - G0-10/G1 - D14 (7/31)</t>
+  </si>
+  <si>
+    <t>6465 - G0-10/G1 - D14 (7/31)</t>
+  </si>
+  <si>
+    <t>6605 - G0-76/G2  - D14 (7/31)</t>
+  </si>
+  <si>
+    <t>6606 - G0-76/G2  - D14 (7/31)</t>
+  </si>
+  <si>
+    <t>6607- G0-76/G2  - D14 (7/31)</t>
+  </si>
+  <si>
+    <t>6445 - G0-76/G1 - D21 (8/7)</t>
+  </si>
+  <si>
+    <t>6446 - G0-76/G1 - D21 (8/7)</t>
+  </si>
+  <si>
+    <t>6463 - G0-10/G1 - D21 (8/7)</t>
+  </si>
+  <si>
+    <t>6464 - G0-10/G1 - D21 (8/7)</t>
+  </si>
+  <si>
+    <t>6465 - G0-10/G1 - D21 (8/7)</t>
+  </si>
+  <si>
+    <t>6605 - G0-76/G2 - D21 (8/7)</t>
+  </si>
+  <si>
+    <t>6606 - G0-76/G2 - D21 (8/7)</t>
+  </si>
+  <si>
+    <t>6607 - G0-76/G2 - D21 (8/7)</t>
+  </si>
+  <si>
+    <t>5958 G0-76/G1 - D7 (5/3)</t>
+  </si>
+  <si>
+    <t>5961 G0-76/G1 - D7 (5/3)</t>
+  </si>
+  <si>
+    <t>5962 G0-76/G1 - D7 (5/3)</t>
+  </si>
+  <si>
+    <t>5958 - G0-76/G1 - D14 (5/10)</t>
+  </si>
+  <si>
+    <t>5961 - G0-76/G1 - D14 (5/10)</t>
+  </si>
+  <si>
+    <t>5962 - G0-76/G1 - D14 (5/10)</t>
+  </si>
+  <si>
+    <t>5963 - G0-76/G1 - D14 (5/10)</t>
+  </si>
+  <si>
+    <t>5958 - G0-76/G1 - D21 (5/17)</t>
+  </si>
+  <si>
+    <t>5961 - G0-76/G1 - D21 (5/17)</t>
+  </si>
+  <si>
+    <t>5962 - G0-76/G1 - D21 (5/17)</t>
   </si>
 </sst>
 </file>
@@ -1748,60 +1844,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1830,6 +1872,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2692,121 +2788,121 @@
                   <c:v>IFN #58.1 - 6444 - G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6445</c:v>
+                  <c:v>6445 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6446</c:v>
+                  <c:v>6446 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6463 - G0-10/G1 </c:v>
+                  <c:v>6463 - G0-10/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6464</c:v>
+                  <c:v>6464 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6465</c:v>
+                  <c:v>6465 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6605 - G0-76/G2 </c:v>
+                  <c:v>6605 - G0-76/G2 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6606</c:v>
+                  <c:v>6606 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6607</c:v>
+                  <c:v>6607 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6444 - G0-76/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6445</c:v>
+                  <c:v>6445 - G0-76/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6446</c:v>
+                  <c:v>6446 - G0-76/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6463 - G0-10/G1 </c:v>
+                  <c:v>6463 - G0-10/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6464</c:v>
+                  <c:v>6464 - G0-10/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6465</c:v>
+                  <c:v>6465 - G0-10/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6605 - G0-76/G2 </c:v>
+                  <c:v>6605 - G0-76/G2  - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6606</c:v>
+                  <c:v>6606 - G0-76/G2  - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6607</c:v>
+                  <c:v>6607- G0-76/G2  - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>6444 - G0-76/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6445</c:v>
+                  <c:v>6445 - G0-76/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6446</c:v>
+                  <c:v>6446 - G0-76/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6463 - G0-10/G1 </c:v>
+                  <c:v>6463 - G0-10/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6464</c:v>
+                  <c:v>6464 - G0-10/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6465</c:v>
+                  <c:v>6465 - G0-10/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6605 - G0-76/G2 </c:v>
+                  <c:v>6605 - G0-76/G2 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6606</c:v>
+                  <c:v>6606 - G0-76/G2 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6607</c:v>
+                  <c:v>6607 - G0-76/G2 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>IFN #45.2 - 5957- G0-76/G1 - D7 (5/3)</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5958</c:v>
+                  <c:v>5958 G0-76/G1 - D7 (5/3)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5961</c:v>
+                  <c:v>5961 G0-76/G1 - D7 (5/3)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5962</c:v>
+                  <c:v>5962 G0-76/G1 - D7 (5/3)</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5957- G0-76/G1 - D14 (5/10)</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5958</c:v>
+                  <c:v>5958 - G0-76/G1 - D14 (5/10)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5961</c:v>
+                  <c:v>5961 - G0-76/G1 - D14 (5/10)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5962</c:v>
+                  <c:v>5962 - G0-76/G1 - D14 (5/10)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5963</c:v>
+                  <c:v>5963 - G0-76/G1 - D14 (5/10)</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>5957- G0-76/G1 - D21 (5/17)</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5958</c:v>
+                  <c:v>5958 - G0-76/G1 - D21 (5/17)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5961</c:v>
+                  <c:v>5961 - G0-76/G1 - D21 (5/17)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5962</c:v>
+                  <c:v>5962 - G0-76/G1 - D21 (5/17)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3091,121 +3187,121 @@
                   <c:v>IFN #58.1 - 6444 - G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6445</c:v>
+                  <c:v>6445 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6446</c:v>
+                  <c:v>6446 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6463 - G0-10/G1 </c:v>
+                  <c:v>6463 - G0-10/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6464</c:v>
+                  <c:v>6464 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6465</c:v>
+                  <c:v>6465 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6605 - G0-76/G2 </c:v>
+                  <c:v>6605 - G0-76/G2 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6606</c:v>
+                  <c:v>6606 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6607</c:v>
+                  <c:v>6607 G0-76/G1 - D7 (7/24)</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6444 - G0-76/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6445</c:v>
+                  <c:v>6445 - G0-76/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6446</c:v>
+                  <c:v>6446 - G0-76/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6463 - G0-10/G1 </c:v>
+                  <c:v>6463 - G0-10/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6464</c:v>
+                  <c:v>6464 - G0-10/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6465</c:v>
+                  <c:v>6465 - G0-10/G1 - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6605 - G0-76/G2 </c:v>
+                  <c:v>6605 - G0-76/G2  - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6606</c:v>
+                  <c:v>6606 - G0-76/G2  - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6607</c:v>
+                  <c:v>6607- G0-76/G2  - D14 (7/31)</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6444 - G0-76/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6445</c:v>
+                  <c:v>6445 - G0-76/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6446</c:v>
+                  <c:v>6446 - G0-76/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6463 - G0-10/G1 </c:v>
+                  <c:v>6463 - G0-10/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6464</c:v>
+                  <c:v>6464 - G0-10/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6465</c:v>
+                  <c:v>6465 - G0-10/G1 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6605 - G0-76/G2 </c:v>
+                  <c:v>6605 - G0-76/G2 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6606</c:v>
+                  <c:v>6606 - G0-76/G2 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6607</c:v>
+                  <c:v>6607 - G0-76/G2 - D21 (8/7)</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>IFN #45.2 - 5957- G0-76/G1 - D7 (5/3)</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5958</c:v>
+                  <c:v>5958 G0-76/G1 - D7 (5/3)</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5961</c:v>
+                  <c:v>5961 G0-76/G1 - D7 (5/3)</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5962</c:v>
+                  <c:v>5962 G0-76/G1 - D7 (5/3)</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5957- G0-76/G1 - D14 (5/10)</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5958</c:v>
+                  <c:v>5958 - G0-76/G1 - D14 (5/10)</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5961</c:v>
+                  <c:v>5961 - G0-76/G1 - D14 (5/10)</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5962</c:v>
+                  <c:v>5962 - G0-76/G1 - D14 (5/10)</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5963</c:v>
+                  <c:v>5963 - G0-76/G1 - D14 (5/10)</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>5957- G0-76/G1 - D21 (5/17)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5958</c:v>
+                  <c:v>5958 - G0-76/G1 - D21 (5/17)</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5961</c:v>
+                  <c:v>5961 - G0-76/G1 - D21 (5/17)</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5962</c:v>
+                  <c:v>5962 - G0-76/G1 - D21 (5/17)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3947,7 +4043,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3969,21 +4065,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="2:22" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="23"/>
@@ -4041,31 +4137,31 @@
         <v>188</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F3" s="68">
         <v>2000</v>
       </c>
-      <c r="G3" s="77">
-        <v>6607</v>
+      <c r="G3" s="77" t="s">
+        <v>237</v>
       </c>
       <c r="H3" s="69">
         <v>10000</v>
       </c>
-      <c r="I3" s="80">
-        <v>6606</v>
+      <c r="I3" s="80" t="s">
+        <v>244</v>
       </c>
       <c r="J3" s="68">
         <v>100000</v>
       </c>
       <c r="K3" s="77" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="L3" s="68">
         <v>100000</v>
       </c>
-      <c r="M3" s="77">
-        <v>5958</v>
+      <c r="M3" s="77" t="s">
+        <v>257</v>
       </c>
       <c r="N3" s="70">
         <v>5000</v>
@@ -4081,36 +4177,36 @@
       <c r="B4" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="107">
         <v>500</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="75">
-        <v>6445</v>
+      <c r="D4" s="108"/>
+      <c r="E4" s="75" t="s">
+        <v>230</v>
       </c>
       <c r="F4" s="57">
         <v>2000</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H4" s="62">
         <v>7000</v>
       </c>
-      <c r="I4" s="81">
-        <v>6607</v>
+      <c r="I4" s="81" t="s">
+        <v>245</v>
       </c>
       <c r="J4" s="57">
         <v>150000</v>
       </c>
-      <c r="K4" s="75">
-        <v>6606</v>
+      <c r="K4" s="75" t="s">
+        <v>252</v>
       </c>
       <c r="L4" s="57">
         <v>150000</v>
       </c>
-      <c r="M4" s="75">
-        <v>5961</v>
+      <c r="M4" s="75" t="s">
+        <v>258</v>
       </c>
       <c r="N4" s="64">
         <v>1000</v>
@@ -4126,36 +4222,36 @@
       <c r="B5" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="89">
+      <c r="C5" s="109">
         <v>250</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="75">
-        <v>6446</v>
+      <c r="D5" s="110"/>
+      <c r="E5" s="75" t="s">
+        <v>231</v>
       </c>
       <c r="F5" s="57">
         <v>2000</v>
       </c>
-      <c r="G5" s="79">
-        <v>6445</v>
+      <c r="G5" s="79" t="s">
+        <v>238</v>
       </c>
       <c r="H5" s="62">
         <v>2000</v>
       </c>
       <c r="I5" s="81" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J5" s="57">
         <v>10000</v>
       </c>
-      <c r="K5" s="75">
-        <v>6607</v>
+      <c r="K5" s="75" t="s">
+        <v>253</v>
       </c>
       <c r="L5" s="57">
         <v>200000</v>
       </c>
-      <c r="M5" s="75">
-        <v>5962</v>
+      <c r="M5" s="75" t="s">
+        <v>259</v>
       </c>
       <c r="N5" s="64">
         <v>1000</v>
@@ -4171,36 +4267,36 @@
       <c r="B6" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6" s="109">
         <v>125</v>
       </c>
-      <c r="D6" s="90"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="75" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F6" s="57">
         <v>500</v>
       </c>
-      <c r="G6" s="79">
-        <v>6446</v>
+      <c r="G6" s="79" t="s">
+        <v>239</v>
       </c>
       <c r="H6" s="62">
         <v>10000</v>
       </c>
-      <c r="I6" s="81">
-        <v>6445</v>
+      <c r="I6" s="81" t="s">
+        <v>246</v>
       </c>
       <c r="J6" s="57">
         <v>5000</v>
       </c>
       <c r="K6" s="75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L6" s="57">
         <v>1000</v>
       </c>
-      <c r="M6" s="75">
-        <v>5963</v>
+      <c r="M6" s="75" t="s">
+        <v>260</v>
       </c>
       <c r="N6" s="64">
         <v>2000</v>
@@ -4216,36 +4312,36 @@
       <c r="B7" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="109">
         <v>62.5</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="75">
-        <v>6464</v>
+      <c r="D7" s="110"/>
+      <c r="E7" s="75" t="s">
+        <v>233</v>
       </c>
       <c r="F7" s="57">
         <v>1000</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="H7" s="62">
         <v>2000</v>
       </c>
-      <c r="I7" s="81">
-        <v>6446</v>
+      <c r="I7" s="81" t="s">
+        <v>247</v>
       </c>
       <c r="J7" s="57">
         <v>10000</v>
       </c>
-      <c r="K7" s="75">
-        <v>5958</v>
+      <c r="K7" s="75" t="s">
+        <v>254</v>
       </c>
       <c r="L7" s="57">
         <v>1000</v>
       </c>
       <c r="M7" s="75" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N7" s="64">
         <v>5000</v>
@@ -4261,36 +4357,36 @@
       <c r="B8" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8" s="109">
         <v>31.25</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="75">
-        <v>6465</v>
+      <c r="D8" s="110"/>
+      <c r="E8" s="75" t="s">
+        <v>234</v>
       </c>
       <c r="F8" s="57">
         <v>2000</v>
       </c>
-      <c r="G8" s="79">
-        <v>6464</v>
+      <c r="G8" s="79" t="s">
+        <v>241</v>
       </c>
       <c r="H8" s="62">
         <v>1000</v>
       </c>
       <c r="I8" s="81" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="J8" s="57">
         <v>1000</v>
       </c>
-      <c r="K8" s="75">
-        <v>5961</v>
+      <c r="K8" s="75" t="s">
+        <v>255</v>
       </c>
       <c r="L8" s="57">
         <v>2000</v>
       </c>
-      <c r="M8" s="75">
-        <v>5958</v>
+      <c r="M8" s="75" t="s">
+        <v>261</v>
       </c>
       <c r="N8" s="64">
         <v>5000</v>
@@ -4306,102 +4402,102 @@
       <c r="B9" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="109">
         <v>15.625</v>
       </c>
-      <c r="D9" s="90"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="75" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F9" s="57">
         <v>5000</v>
       </c>
-      <c r="G9" s="79">
-        <v>6465</v>
+      <c r="G9" s="79" t="s">
+        <v>242</v>
       </c>
       <c r="H9" s="62">
         <v>2000</v>
       </c>
-      <c r="I9" s="81">
-        <v>6464</v>
+      <c r="I9" s="81" t="s">
+        <v>249</v>
       </c>
       <c r="J9" s="57">
         <v>2000</v>
       </c>
-      <c r="K9" s="75">
-        <v>5962</v>
+      <c r="K9" s="75" t="s">
+        <v>256</v>
       </c>
       <c r="L9" s="57">
         <v>1000</v>
       </c>
-      <c r="M9" s="75">
-        <v>5961</v>
+      <c r="M9" s="75" t="s">
+        <v>262</v>
       </c>
       <c r="N9" s="64">
         <v>5000</v>
       </c>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="105">
         <v>7.8</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="76">
-        <v>6606</v>
+      <c r="D10" s="106"/>
+      <c r="E10" s="76" t="s">
+        <v>236</v>
       </c>
       <c r="F10" s="63">
         <v>7000</v>
       </c>
       <c r="G10" s="76" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="H10" s="63">
         <v>100000</v>
       </c>
-      <c r="I10" s="82">
-        <v>6465</v>
+      <c r="I10" s="82" t="s">
+        <v>250</v>
       </c>
       <c r="J10" s="63">
         <v>2000</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L10" s="63">
         <v>2000</v>
       </c>
-      <c r="M10" s="76">
-        <v>5962</v>
+      <c r="M10" s="76" t="s">
+        <v>263</v>
       </c>
       <c r="N10" s="65">
         <v>500</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
@@ -4452,272 +4548,314 @@
       <c r="D14" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="91" t="str">
+      <c r="E14" s="99" t="str">
         <f>E3</f>
         <v>IFN #58.1 - 6444 - G0-76/G1 - D7 (7/24)</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93">
+      <c r="F14" s="100"/>
+      <c r="G14" s="101" t="str">
         <f>G3</f>
-        <v>6607</v>
-      </c>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93">
+        <v>6607 G0-76/G1 - D7 (7/24)</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101" t="str">
         <f>I3</f>
-        <v>6606</v>
-      </c>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93" t="str">
+        <v>6606 - G0-76/G2  - D14 (7/31)</v>
+      </c>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101" t="str">
         <f>K3</f>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
-      </c>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93">
+        <v>6605 - G0-76/G2 - D21 (8/7)</v>
+      </c>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101" t="str">
         <f>M3</f>
-        <v>5958</v>
-      </c>
-      <c r="N14" s="94"/>
+        <v>5958 - G0-76/G1 - D14 (5/10)</v>
+      </c>
+      <c r="N14" s="102"/>
     </row>
     <row r="15" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99">
+      <c r="D15" s="94"/>
+      <c r="E15" s="95" t="str">
         <f>E4</f>
-        <v>6445</v>
-      </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="95" t="str">
+        <v>6445 G0-76/G1 - D7 (7/24)</v>
+      </c>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97" t="str">
         <f>G4</f>
         <v>6444 - G0-76/G1 - D14 (7/31)</v>
       </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95">
+      <c r="H15" s="97"/>
+      <c r="I15" s="97" t="str">
         <f>I4</f>
-        <v>6607</v>
-      </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95">
+        <v>6607- G0-76/G2  - D14 (7/31)</v>
+      </c>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97" t="str">
         <f>K4</f>
-        <v>6606</v>
-      </c>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95">
+        <v>6606 - G0-76/G2 - D21 (8/7)</v>
+      </c>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97" t="str">
         <f>M4</f>
-        <v>5961</v>
-      </c>
-      <c r="N15" s="96"/>
+        <v>5961 - G0-76/G1 - D14 (5/10)</v>
+      </c>
+      <c r="N15" s="98"/>
     </row>
     <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="99">
+      <c r="D16" s="94"/>
+      <c r="E16" s="95" t="str">
         <f t="shared" ref="E16:E20" si="0">E5</f>
-        <v>6446</v>
-      </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="95">
+        <v>6446 G0-76/G1 - D7 (7/24)</v>
+      </c>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97" t="str">
         <f t="shared" ref="G16:G21" si="1">G5</f>
-        <v>6445</v>
-      </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95" t="str">
+        <v>6445 - G0-76/G1 - D14 (7/31)</v>
+      </c>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97" t="str">
         <f t="shared" ref="I16:I20" si="2">I5</f>
         <v>6444 - G0-76/G1 - D21 (8/7)</v>
       </c>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95">
+      <c r="J16" s="97"/>
+      <c r="K16" s="97" t="str">
         <f t="shared" ref="K16:K21" si="3">K5</f>
-        <v>6607</v>
-      </c>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95">
+        <v>6607 - G0-76/G2 - D21 (8/7)</v>
+      </c>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97" t="str">
         <f t="shared" ref="M16:M21" si="4">M5</f>
-        <v>5962</v>
-      </c>
-      <c r="N16" s="96"/>
+        <v>5962 - G0-76/G1 - D14 (5/10)</v>
+      </c>
+      <c r="N16" s="98"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99" t="str">
+      <c r="D17" s="94"/>
+      <c r="E17" s="95" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
-      </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="95">
+        <v>6463 - G0-10/G1 - D7 (7/24)</v>
+      </c>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>6446</v>
-      </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95">
+        <v>6446 - G0-76/G1 - D14 (7/31)</v>
+      </c>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97" t="str">
         <f t="shared" si="2"/>
-        <v>6445</v>
-      </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95" t="str">
+        <v>6445 - G0-76/G1 - D21 (8/7)</v>
+      </c>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97" t="str">
         <f t="shared" si="3"/>
         <v>IFN #45.2 - 5957- G0-76/G1 - D7 (5/3)</v>
       </c>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95">
+      <c r="L17" s="97"/>
+      <c r="M17" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>5963</v>
-      </c>
-      <c r="N17" s="96"/>
+        <v>5963 - G0-76/G1 - D14 (5/10)</v>
+      </c>
+      <c r="N17" s="98"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99">
+      <c r="D18" s="94"/>
+      <c r="E18" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>6464</v>
-      </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="95" t="str">
+        <v>6464 G0-76/G1 - D7 (7/24)</v>
+      </c>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
-      </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95">
+        <v>6463 - G0-10/G1 - D14 (7/31)</v>
+      </c>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97" t="str">
         <f t="shared" si="2"/>
-        <v>6446</v>
-      </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95">
+        <v>6446 - G0-76/G1 - D21 (8/7)</v>
+      </c>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>5958</v>
-      </c>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95" t="str">
+        <v>5958 G0-76/G1 - D7 (5/3)</v>
+      </c>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97" t="str">
         <f t="shared" si="4"/>
         <v>5957- G0-76/G1 - D21 (5/17)</v>
       </c>
-      <c r="N18" s="96"/>
+      <c r="N18" s="98"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99">
+      <c r="D19" s="94"/>
+      <c r="E19" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>6465</v>
-      </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="95">
+        <v>6465 G0-76/G1 - D7 (7/24)</v>
+      </c>
+      <c r="F19" s="96"/>
+      <c r="G19" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>6464</v>
-      </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95" t="str">
+        <v>6464 - G0-10/G1 - D14 (7/31)</v>
+      </c>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
-      </c>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95">
+        <v>6463 - G0-10/G1 - D21 (8/7)</v>
+      </c>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>5961</v>
-      </c>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95">
+        <v>5961 G0-76/G1 - D7 (5/3)</v>
+      </c>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>5958</v>
-      </c>
-      <c r="N19" s="96"/>
+        <v>5958 - G0-76/G1 - D21 (5/17)</v>
+      </c>
+      <c r="N19" s="98"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="str">
+      <c r="D20" s="94"/>
+      <c r="E20" s="95" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
-      </c>
-      <c r="F20" s="100"/>
-      <c r="G20" s="95">
+        <v>6605 - G0-76/G2 - D7 (7/24)</v>
+      </c>
+      <c r="F20" s="96"/>
+      <c r="G20" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>6465</v>
-      </c>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95">
+        <v>6465 - G0-10/G1 - D14 (7/31)</v>
+      </c>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97" t="str">
         <f t="shared" si="2"/>
-        <v>6464</v>
-      </c>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95">
+        <v>6464 - G0-10/G1 - D21 (8/7)</v>
+      </c>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>5962</v>
-      </c>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95">
+        <v>5962 G0-76/G1 - D7 (5/3)</v>
+      </c>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>5961</v>
-      </c>
-      <c r="N20" s="96"/>
+        <v>5961 - G0-76/G1 - D21 (5/17)</v>
+      </c>
+      <c r="N20" s="98"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107">
+      <c r="D21" s="88"/>
+      <c r="E21" s="89" t="str">
         <f>E10</f>
-        <v>6606</v>
-      </c>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109" t="str">
+        <v>6606 G0-76/G1 - D7 (7/24)</v>
+      </c>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
-      </c>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109">
+        <v>6605 - G0-76/G2  - D14 (7/31)</v>
+      </c>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91" t="str">
         <f>I10</f>
-        <v>6465</v>
-      </c>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109" t="str">
+        <v>6465 - G0-10/G1 - D21 (8/7)</v>
+      </c>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91" t="str">
         <f t="shared" si="3"/>
         <v>5957- G0-76/G1 - D14 (5/10)</v>
       </c>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109">
+      <c r="L21" s="91"/>
+      <c r="M21" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>5962</v>
-      </c>
-      <c r="N21" s="110"/>
+        <v>5962 - G0-76/G1 - D21 (5/17)</v>
+      </c>
+      <c r="N21" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B12:N12"/>
     <mergeCell ref="C21:D21"/>
@@ -4734,48 +4872,6 @@
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="42" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -4983,9 +5079,9 @@
       <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="30" t="str">
         <f>'Plate set up'!E4</f>
-        <v>6445</v>
+        <v>6445 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="L6" s="35">
         <f>B19</f>
@@ -5007,9 +5103,9 @@
         <f>'Plate set up'!F4</f>
         <v>2000</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6445</v>
+        <v>6445 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="R6" s="13">
         <f t="shared" ref="R6:R51" si="3">O6*P6</f>
@@ -5049,9 +5145,9 @@
       <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="30" t="str">
         <f>'Plate set up'!E5</f>
-        <v>6446</v>
+        <v>6446 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="L7" s="35">
         <f>B31</f>
@@ -5073,9 +5169,9 @@
         <f>'Plate set up'!F5</f>
         <v>2000</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6446</v>
+        <v>6446 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="R7" s="13">
         <f t="shared" si="3"/>
@@ -5117,7 +5213,7 @@
       </c>
       <c r="K8" s="30" t="str">
         <f>'Plate set up'!E6</f>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D7 (7/24)</v>
       </c>
       <c r="L8" s="35">
         <f>B43</f>
@@ -5141,7 +5237,7 @@
       </c>
       <c r="Q8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D7 (7/24)</v>
       </c>
       <c r="R8" s="13">
         <f t="shared" si="3"/>
@@ -5181,9 +5277,9 @@
       <c r="J9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="30" t="str">
         <f>'Plate set up'!E7</f>
-        <v>6464</v>
+        <v>6464 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="L9" s="35">
         <f>B55</f>
@@ -5205,9 +5301,9 @@
         <f>'Plate set up'!F7</f>
         <v>1000</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6464</v>
+        <v>6464 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="R9" s="13">
         <f t="shared" si="3"/>
@@ -5247,9 +5343,9 @@
       <c r="J10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="30" t="str">
         <f>'Plate set up'!E8</f>
-        <v>6465</v>
+        <v>6465 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="L10" s="35">
         <f>B67</f>
@@ -5271,9 +5367,9 @@
         <f>'Plate set up'!F8</f>
         <v>2000</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>6465 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="R10" s="13">
         <f t="shared" si="3"/>
@@ -5315,7 +5411,7 @@
       </c>
       <c r="K11" s="30" t="str">
         <f>'Plate set up'!E9</f>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2 - D7 (7/24)</v>
       </c>
       <c r="L11" s="35">
         <f>B79</f>
@@ -5339,7 +5435,7 @@
       </c>
       <c r="Q11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2 - D7 (7/24)</v>
       </c>
       <c r="R11" s="13">
         <f t="shared" si="3"/>
@@ -5379,9 +5475,9 @@
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="30" t="str">
         <f>'Plate set up'!E10</f>
-        <v>6606</v>
+        <v>6606 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="L12" s="35">
         <f>B91</f>
@@ -5403,9 +5499,9 @@
         <f>'Plate set up'!F10</f>
         <v>7000</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6606</v>
+        <v>6606 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="R12" s="13">
         <f t="shared" si="3"/>
@@ -5428,9 +5524,9 @@
       <c r="J13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="30" t="str">
         <f>'Plate set up'!G3</f>
-        <v>6607</v>
+        <v>6607 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="L13" s="35">
         <f>B9</f>
@@ -5452,9 +5548,9 @@
         <f>'Plate set up'!H3</f>
         <v>10000</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6607</v>
+        <v>6607 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="R13" s="13">
         <f t="shared" si="3"/>
@@ -5526,9 +5622,9 @@
       <c r="J15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="30" t="str">
         <f>'Plate set up'!G5</f>
-        <v>6445</v>
+        <v>6445 - G0-76/G1 - D14 (7/31)</v>
       </c>
       <c r="L15" s="35">
         <f>B33</f>
@@ -5550,9 +5646,9 @@
         <f>'Plate set up'!H5</f>
         <v>2000</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6445</v>
+        <v>6445 - G0-76/G1 - D14 (7/31)</v>
       </c>
       <c r="R15" s="13">
         <f t="shared" si="3"/>
@@ -5581,9 +5677,9 @@
       <c r="J16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="30" t="str">
         <f>'Plate set up'!G6</f>
-        <v>6446</v>
+        <v>6446 - G0-76/G1 - D14 (7/31)</v>
       </c>
       <c r="L16" s="35">
         <f>B45</f>
@@ -5605,9 +5701,9 @@
         <f>'Plate set up'!H6</f>
         <v>10000</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6446</v>
+        <v>6446 - G0-76/G1 - D14 (7/31)</v>
       </c>
       <c r="R16" s="13">
         <f t="shared" si="3"/>
@@ -5643,7 +5739,7 @@
       </c>
       <c r="K17" s="30" t="str">
         <f>'Plate set up'!G7</f>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="L17" s="35">
         <f>B57</f>
@@ -5667,7 +5763,7 @@
       </c>
       <c r="Q17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="R17" s="13">
         <f>O17*P17</f>
@@ -5701,9 +5797,9 @@
       <c r="J18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="30" t="str">
         <f>'Plate set up'!G8</f>
-        <v>6464</v>
+        <v>6464 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="L18" s="35">
         <f>B69</f>
@@ -5725,9 +5821,9 @@
         <f>'Plate set up'!H8</f>
         <v>1000</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6464</v>
+        <v>6464 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="R18" s="13">
         <f t="shared" si="3"/>
@@ -5758,9 +5854,9 @@
       <c r="J19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="30" t="str">
         <f>'Plate set up'!G9</f>
-        <v>6465</v>
+        <v>6465 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="L19" s="35">
         <f>B81</f>
@@ -5782,9 +5878,9 @@
         <f>'Plate set up'!H9</f>
         <v>2000</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>6465 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="R19" s="13">
         <f t="shared" si="3"/>
@@ -5817,7 +5913,7 @@
       </c>
       <c r="K20" s="30" t="str">
         <f>'Plate set up'!G10</f>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="L20" s="35">
         <f>B93</f>
@@ -5841,7 +5937,7 @@
       </c>
       <c r="Q20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="R20" s="13">
         <f t="shared" si="3"/>
@@ -5872,9 +5968,9 @@
       <c r="J21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="30" t="str">
         <f>'Plate set up'!I3</f>
-        <v>6606</v>
+        <v>6606 - G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="L21" s="35">
         <f>B11</f>
@@ -5896,9 +5992,9 @@
         <f>'Plate set up'!J3</f>
         <v>100000</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6606</v>
+        <v>6606 - G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="R21" s="13">
         <f t="shared" si="3"/>
@@ -5927,9 +6023,9 @@
       <c r="J22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="30" t="str">
         <f>'Plate set up'!I4</f>
-        <v>6607</v>
+        <v>6607- G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="L22" s="35">
         <f>B23</f>
@@ -5951,9 +6047,9 @@
         <f>'Plate set up'!J4</f>
         <v>150000</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6607</v>
+        <v>6607- G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="R22" s="13">
         <f t="shared" si="3"/>
@@ -6035,9 +6131,9 @@
       <c r="J24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="30" t="str">
         <f>'Plate set up'!I6</f>
-        <v>6445</v>
+        <v>6445 - G0-76/G1 - D21 (8/7)</v>
       </c>
       <c r="L24" s="35">
         <f>B47</f>
@@ -6059,9 +6155,9 @@
         <f>'Plate set up'!J6</f>
         <v>5000</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6445</v>
+        <v>6445 - G0-76/G1 - D21 (8/7)</v>
       </c>
       <c r="R24" s="13">
         <f t="shared" si="3"/>
@@ -6093,9 +6189,9 @@
       <c r="J25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="30" t="str">
         <f>'Plate set up'!I7</f>
-        <v>6446</v>
+        <v>6446 - G0-76/G1 - D21 (8/7)</v>
       </c>
       <c r="L25" s="35">
         <f>B59</f>
@@ -6117,9 +6213,9 @@
         <f>'Plate set up'!J7</f>
         <v>10000</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6446</v>
+        <v>6446 - G0-76/G1 - D21 (8/7)</v>
       </c>
       <c r="R25" s="13">
         <f t="shared" si="3"/>
@@ -6150,7 +6246,7 @@
       </c>
       <c r="K26" s="30" t="str">
         <f>'Plate set up'!I8</f>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="L26" s="35">
         <f>B71</f>
@@ -6174,7 +6270,7 @@
       </c>
       <c r="Q26" s="13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="R26" s="13">
         <f t="shared" si="3"/>
@@ -6203,9 +6299,9 @@
       <c r="J27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="30" t="str">
         <f>'Plate set up'!I9</f>
-        <v>6464</v>
+        <v>6464 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="L27" s="35">
         <f>B83</f>
@@ -6227,9 +6323,9 @@
         <f>'Plate set up'!J9</f>
         <v>2000</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6464</v>
+        <v>6464 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="R27" s="13">
         <f t="shared" si="3"/>
@@ -6258,9 +6354,9 @@
       <c r="J28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="30" t="str">
         <f>'Plate set up'!I10</f>
-        <v>6465</v>
+        <v>6465 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="L28" s="35">
         <f>B95</f>
@@ -6282,9 +6378,9 @@
         <f>'Plate set up'!J10</f>
         <v>2000</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>6465 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="R28" s="13">
         <f t="shared" si="3"/>
@@ -6311,7 +6407,7 @@
       </c>
       <c r="K29" s="30" t="str">
         <f>'Plate set up'!K3</f>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="L29" s="35">
         <f>B13</f>
@@ -6335,7 +6431,7 @@
       </c>
       <c r="Q29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="R29" s="13">
         <f t="shared" si="3"/>
@@ -6356,15 +6452,15 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="73" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G30" s="46"/>
       <c r="J30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="30" t="str">
         <f>'Plate set up'!K4</f>
-        <v>6606</v>
+        <v>6606 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="L30" s="35">
         <f>B25</f>
@@ -6386,9 +6482,9 @@
         <f>'Plate set up'!L4</f>
         <v>150000</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6606</v>
+        <v>6606 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="R30" s="13">
         <f t="shared" si="3"/>
@@ -6409,14 +6505,14 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="30" t="str">
         <f>'Plate set up'!K5</f>
-        <v>6607</v>
+        <v>6607 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="L31" s="35">
         <f>B37</f>
@@ -6438,9 +6534,9 @@
         <f>'Plate set up'!L5</f>
         <v>200000</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6607</v>
+        <v>6607 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="R31" s="13">
         <f t="shared" si="3"/>
@@ -6518,9 +6614,9 @@
       <c r="J33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="30" t="str">
         <f>'Plate set up'!K7</f>
-        <v>5958</v>
+        <v>5958 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="L33" s="35">
         <f>B61</f>
@@ -6542,9 +6638,9 @@
         <f>'Plate set up'!L7</f>
         <v>1000</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5958</v>
+        <v>5958 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="R33" s="13">
         <f t="shared" si="3"/>
@@ -6573,9 +6669,9 @@
       <c r="J34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="30" t="str">
         <f>'Plate set up'!K8</f>
-        <v>5961</v>
+        <v>5961 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="L34" s="35">
         <f>B73</f>
@@ -6597,9 +6693,9 @@
         <f>'Plate set up'!L8</f>
         <v>2000</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5961</v>
+        <v>5961 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="R34" s="13">
         <f t="shared" si="3"/>
@@ -6623,9 +6719,9 @@
       <c r="J35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="30" t="str">
         <f>'Plate set up'!K9</f>
-        <v>5962</v>
+        <v>5962 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="L35" s="35">
         <f>B85</f>
@@ -6647,9 +6743,9 @@
         <f>'Plate set up'!L9</f>
         <v>1000</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5962</v>
+        <v>5962 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="R35" s="13">
         <f t="shared" si="3"/>
@@ -6721,9 +6817,9 @@
       <c r="J37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37" s="30" t="str">
         <f>'Plate set up'!M3</f>
-        <v>5958</v>
+        <v>5958 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="L37" s="35">
         <f>B15</f>
@@ -6745,9 +6841,9 @@
         <f>'Plate set up'!N3</f>
         <v>5000</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5958</v>
+        <v>5958 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="R37" s="13">
         <f t="shared" si="3"/>
@@ -6770,9 +6866,9 @@
       <c r="J38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="30" t="str">
         <f>'Plate set up'!M4</f>
-        <v>5961</v>
+        <v>5961 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="L38" s="35">
         <f>B27</f>
@@ -6794,9 +6890,9 @@
         <f>'Plate set up'!N4</f>
         <v>1000</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5961</v>
+        <v>5961 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="R38" s="13">
         <f t="shared" si="3"/>
@@ -6819,9 +6915,9 @@
       <c r="J39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="30" t="str">
         <f>'Plate set up'!M5</f>
-        <v>5962</v>
+        <v>5962 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="L39" s="35">
         <f>B39</f>
@@ -6843,9 +6939,9 @@
         <f>'Plate set up'!N5</f>
         <v>1000</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5962</v>
+        <v>5962 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="R39" s="13">
         <f t="shared" si="3"/>
@@ -6868,9 +6964,9 @@
       <c r="J40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="30" t="str">
         <f>'Plate set up'!M6</f>
-        <v>5963</v>
+        <v>5963 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="L40" s="35">
         <f>B51</f>
@@ -6892,9 +6988,9 @@
         <f>'Plate set up'!N6</f>
         <v>2000</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5963</v>
+        <v>5963 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="R40" s="13">
         <f t="shared" si="3"/>
@@ -6966,9 +7062,9 @@
       <c r="J42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="30" t="str">
         <f>'Plate set up'!M8</f>
-        <v>5958</v>
+        <v>5958 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="L42" s="35">
         <f>B75</f>
@@ -6990,9 +7086,9 @@
         <f>'Plate set up'!N8</f>
         <v>5000</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5958</v>
+        <v>5958 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="R42" s="13">
         <f t="shared" si="3"/>
@@ -7015,9 +7111,9 @@
       <c r="J43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K43" s="30">
+      <c r="K43" s="30" t="str">
         <f>'Plate set up'!M9</f>
-        <v>5961</v>
+        <v>5961 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="L43" s="35">
         <f>B87</f>
@@ -7039,9 +7135,9 @@
         <f>'Plate set up'!N9</f>
         <v>5000</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="Q43" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5961</v>
+        <v>5961 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="R43" s="13">
         <f t="shared" si="3"/>
@@ -7064,9 +7160,9 @@
       <c r="J44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K44" s="30">
+      <c r="K44" s="30" t="str">
         <f>'Plate set up'!M10</f>
-        <v>5962</v>
+        <v>5962 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="L44" s="35">
         <f>B99</f>
@@ -7088,9 +7184,9 @@
         <f>'Plate set up'!N10</f>
         <v>500</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="Q44" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>5962</v>
+        <v>5962 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="R44" s="13">
         <f t="shared" si="3"/>
@@ -13307,9 +13403,9 @@
       <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="30" t="str">
         <f>Albumin!K6</f>
-        <v>6445</v>
+        <v>6445 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:J14" si="29">B19</f>
@@ -13339,9 +13435,9 @@
         <f t="shared" si="3"/>
         <v>0.16700000000000001</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6445</v>
+        <v>6445 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="W14" s="13">
         <f t="shared" si="9"/>
@@ -13368,9 +13464,9 @@
       <c r="G15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="30" t="str">
         <f>Albumin!K7</f>
-        <v>6446</v>
+        <v>6446 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:J15" si="33">B31</f>
@@ -13400,9 +13496,9 @@
         <f t="shared" si="3"/>
         <v>0.32050000000000001</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6446</v>
+        <v>6446 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="W15" s="13">
         <f t="shared" si="9"/>
@@ -13431,7 +13527,7 @@
       </c>
       <c r="H16" s="30" t="str">
         <f>Albumin!K8</f>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D7 (7/24)</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:J16" si="36">B43</f>
@@ -13463,7 +13559,7 @@
       </c>
       <c r="V16" s="13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D7 (7/24)</v>
       </c>
       <c r="W16" s="13">
         <f t="shared" si="9"/>
@@ -13490,9 +13586,9 @@
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="30" t="str">
         <f>Albumin!K9</f>
-        <v>6464</v>
+        <v>6464 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="I17">
         <f t="shared" ref="I17:J17" si="39">B55</f>
@@ -13522,9 +13618,9 @@
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6464</v>
+        <v>6464 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="W17" s="13">
         <f t="shared" si="9"/>
@@ -13551,9 +13647,9 @@
       <c r="G18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="30" t="str">
         <f>Albumin!K10</f>
-        <v>6465</v>
+        <v>6465 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="I18">
         <f t="shared" ref="I18:J18" si="42">B67</f>
@@ -13583,9 +13679,9 @@
         <f t="shared" si="3"/>
         <v>0.21350000000000002</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6465</v>
+        <v>6465 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="W18" s="13">
         <f t="shared" si="9"/>
@@ -13614,7 +13710,7 @@
       </c>
       <c r="H19" s="30" t="str">
         <f>Albumin!K11</f>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2 - D7 (7/24)</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:J19" si="45">B79</f>
@@ -13646,7 +13742,7 @@
       </c>
       <c r="V19" s="13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2 - D7 (7/24)</v>
       </c>
       <c r="W19" s="13">
         <f t="shared" si="9"/>
@@ -13673,9 +13769,9 @@
       <c r="G20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="30" t="str">
         <f>Albumin!K12</f>
-        <v>6606</v>
+        <v>6606 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="I20">
         <f t="shared" ref="I20:J20" si="48">B91</f>
@@ -13705,9 +13801,9 @@
         <f t="shared" si="3"/>
         <v>0.11650000000000002</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V20" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6606</v>
+        <v>6606 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="W20" s="13">
         <f t="shared" si="9"/>
@@ -13734,9 +13830,9 @@
       <c r="G21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="30" t="str">
         <f>Albumin!K13</f>
-        <v>6607</v>
+        <v>6607 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:J21" si="51">B9</f>
@@ -13766,9 +13862,9 @@
         <f t="shared" si="3"/>
         <v>0.23200000000000004</v>
       </c>
-      <c r="V21" s="13">
+      <c r="V21" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6607</v>
+        <v>6607 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="W21" s="13">
         <f t="shared" si="9"/>
@@ -13853,9 +13949,9 @@
       <c r="G23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="30" t="str">
         <f>Albumin!K15</f>
-        <v>6445</v>
+        <v>6445 - G0-76/G1 - D14 (7/31)</v>
       </c>
       <c r="I23">
         <f t="shared" ref="I23:J23" si="57">B33</f>
@@ -13885,9 +13981,9 @@
         <f t="shared" si="3"/>
         <v>0.10550000000000001</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6445</v>
+        <v>6445 - G0-76/G1 - D14 (7/31)</v>
       </c>
       <c r="W23" s="13">
         <f t="shared" si="9"/>
@@ -13914,9 +14010,9 @@
       <c r="G24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="30" t="str">
         <f>Albumin!K16</f>
-        <v>6446</v>
+        <v>6446 - G0-76/G1 - D14 (7/31)</v>
       </c>
       <c r="I24">
         <f t="shared" ref="I24:J24" si="60">B45</f>
@@ -13946,9 +14042,9 @@
         <f t="shared" si="3"/>
         <v>0.28900000000000003</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6446</v>
+        <v>6446 - G0-76/G1 - D14 (7/31)</v>
       </c>
       <c r="W24" s="13">
         <f t="shared" si="9"/>
@@ -13977,7 +14073,7 @@
       </c>
       <c r="H25" s="30" t="str">
         <f>Albumin!K17</f>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:J25" si="63">B57</f>
@@ -14009,7 +14105,7 @@
       </c>
       <c r="V25" s="13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="W25" s="13">
         <f t="shared" si="9"/>
@@ -14036,9 +14132,9 @@
       <c r="G26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="30" t="str">
         <f>Albumin!K18</f>
-        <v>6464</v>
+        <v>6464 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:J26" si="66">B69</f>
@@ -14068,9 +14164,9 @@
         <f t="shared" si="3"/>
         <v>5.000000000000001E-2</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6464</v>
+        <v>6464 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="W26" s="13">
         <f t="shared" si="9"/>
@@ -14097,9 +14193,9 @@
       <c r="G27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="30" t="str">
         <f>Albumin!K19</f>
-        <v>6465</v>
+        <v>6465 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27:J27" si="69">B81</f>
@@ -14129,9 +14225,9 @@
         <f t="shared" si="3"/>
         <v>0.17450000000000002</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6465</v>
+        <v>6465 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="W27" s="13">
         <f t="shared" si="9"/>
@@ -14160,7 +14256,7 @@
       </c>
       <c r="H28" s="30" t="str">
         <f>Albumin!K20</f>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="I28">
         <f t="shared" ref="I28:J28" si="72">B93</f>
@@ -14192,7 +14288,7 @@
       </c>
       <c r="V28" s="13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="W28" s="13">
         <f t="shared" si="9"/>
@@ -14219,9 +14315,9 @@
       <c r="G29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="30" t="str">
         <f>Albumin!K21</f>
-        <v>6606</v>
+        <v>6606 - G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="I29">
         <f t="shared" ref="I29:J29" si="75">B11</f>
@@ -14251,9 +14347,9 @@
         <f t="shared" si="3"/>
         <v>0.13650000000000004</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6606</v>
+        <v>6606 - G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="W29" s="13">
         <f t="shared" si="9"/>
@@ -14280,9 +14376,9 @@
       <c r="G30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="30" t="str">
         <f>Albumin!K22</f>
-        <v>6607</v>
+        <v>6607- G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="I30">
         <f t="shared" ref="I30:J30" si="78">B23</f>
@@ -14312,9 +14408,9 @@
         <f t="shared" si="3"/>
         <v>0.29850000000000004</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6607</v>
+        <v>6607- G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="W30" s="13">
         <f t="shared" si="9"/>
@@ -14402,9 +14498,9 @@
       <c r="G32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="30" t="str">
         <f>Albumin!K24</f>
-        <v>6445</v>
+        <v>6445 - G0-76/G1 - D21 (8/7)</v>
       </c>
       <c r="I32">
         <f t="shared" ref="I32:J32" si="84">B47</f>
@@ -14434,9 +14530,9 @@
         <f t="shared" si="3"/>
         <v>0.38200000000000001</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6445</v>
+        <v>6445 - G0-76/G1 - D21 (8/7)</v>
       </c>
       <c r="W32" s="13">
         <f t="shared" si="9"/>
@@ -14463,9 +14559,9 @@
       <c r="G33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="30" t="str">
         <f>Albumin!K25</f>
-        <v>6446</v>
+        <v>6446 - G0-76/G1 - D21 (8/7)</v>
       </c>
       <c r="I33">
         <f t="shared" ref="I33:J33" si="87">B59</f>
@@ -14495,9 +14591,9 @@
         <f t="shared" si="3"/>
         <v>0.37000000000000011</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6446</v>
+        <v>6446 - G0-76/G1 - D21 (8/7)</v>
       </c>
       <c r="W33" s="13">
         <f t="shared" si="9"/>
@@ -14526,7 +14622,7 @@
       </c>
       <c r="H34" s="30" t="str">
         <f>Albumin!K26</f>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:J34" si="90">B71</f>
@@ -14558,7 +14654,7 @@
       </c>
       <c r="V34" s="13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="W34" s="13">
         <f t="shared" si="9"/>
@@ -14585,9 +14681,9 @@
       <c r="G35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="30" t="str">
         <f>Albumin!K27</f>
-        <v>6464</v>
+        <v>6464 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="I35">
         <f>B83</f>
@@ -14617,9 +14713,9 @@
         <f t="shared" si="3"/>
         <v>0.17099999999999999</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V35" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6464</v>
+        <v>6464 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="W35" s="13">
         <f t="shared" si="9"/>
@@ -14646,9 +14742,9 @@
       <c r="G36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="30" t="str">
         <f>Albumin!K28</f>
-        <v>6465</v>
+        <v>6465 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="I36">
         <f>B95</f>
@@ -14678,9 +14774,9 @@
         <f t="shared" si="3"/>
         <v>0.29649999999999999</v>
       </c>
-      <c r="V36" s="13">
+      <c r="V36" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6465</v>
+        <v>6465 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="W36" s="13">
         <f t="shared" si="9"/>
@@ -14709,7 +14805,7 @@
       </c>
       <c r="H37" s="30" t="str">
         <f>Albumin!K29</f>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="I37">
         <f t="shared" ref="I37:J37" si="94">B13</f>
@@ -14741,7 +14837,7 @@
       </c>
       <c r="V37" s="13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="W37" s="13">
         <f t="shared" si="9"/>
@@ -14768,9 +14864,9 @@
       <c r="G38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="30" t="str">
         <f>Albumin!K30</f>
-        <v>6606</v>
+        <v>6606 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="I38">
         <f t="shared" ref="I38:J38" si="97">B25</f>
@@ -14800,9 +14896,9 @@
         <f t="shared" si="3"/>
         <v>0.22750000000000004</v>
       </c>
-      <c r="V38" s="13">
+      <c r="V38" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6606</v>
+        <v>6606 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="W38" s="13">
         <f t="shared" si="9"/>
@@ -14829,9 +14925,9 @@
       <c r="G39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="30" t="str">
         <f>Albumin!K31</f>
-        <v>6607</v>
+        <v>6607 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="I39">
         <f t="shared" ref="I39:J39" si="100">B37</f>
@@ -14861,9 +14957,9 @@
         <f t="shared" si="3"/>
         <v>0.27600000000000002</v>
       </c>
-      <c r="V39" s="13">
+      <c r="V39" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>6607</v>
+        <v>6607 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="W39" s="13">
         <f t="shared" si="9"/>
@@ -14951,9 +15047,9 @@
       <c r="G41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="30" t="str">
         <f>Albumin!K33</f>
-        <v>5958</v>
+        <v>5958 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="I41">
         <f t="shared" ref="I41:J41" si="106">B61</f>
@@ -14983,9 +15079,9 @@
         <f t="shared" si="3"/>
         <v>0.14050000000000001</v>
       </c>
-      <c r="V41" s="13">
+      <c r="V41" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>5958</v>
+        <v>5958 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="W41" s="13">
         <f t="shared" si="9"/>
@@ -15012,9 +15108,9 @@
       <c r="G42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="30" t="str">
         <f>Albumin!K34</f>
-        <v>5961</v>
+        <v>5961 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="I42">
         <f t="shared" ref="I42:J42" si="109">B73</f>
@@ -15044,9 +15140,9 @@
         <f t="shared" si="3"/>
         <v>0.30099999999999999</v>
       </c>
-      <c r="V42" s="13">
+      <c r="V42" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>5961</v>
+        <v>5961 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="W42" s="13">
         <f t="shared" si="9"/>
@@ -15073,9 +15169,9 @@
       <c r="G43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="30" t="str">
         <f>Albumin!K35</f>
-        <v>5962</v>
+        <v>5962 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43:J43" si="112">B85</f>
@@ -15105,9 +15201,9 @@
         <f t="shared" si="3"/>
         <v>0.10900000000000003</v>
       </c>
-      <c r="V43" s="13">
+      <c r="V43" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>5962</v>
+        <v>5962 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="W43" s="13">
         <f t="shared" si="9"/>
@@ -15195,9 +15291,9 @@
       <c r="G45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="30" t="str">
         <f>Albumin!K37</f>
-        <v>5958</v>
+        <v>5958 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="I45">
         <f t="shared" ref="I45:J45" si="118">B15</f>
@@ -15227,9 +15323,9 @@
         <f t="shared" si="3"/>
         <v>0.20400000000000001</v>
       </c>
-      <c r="V45" s="13">
+      <c r="V45" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>5958</v>
+        <v>5958 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="W45" s="13">
         <f t="shared" si="9"/>
@@ -15256,9 +15352,9 @@
       <c r="G46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="30" t="str">
         <f>Albumin!K38</f>
-        <v>5961</v>
+        <v>5961 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46:J46" si="121">B27</f>
@@ -15288,9 +15384,9 @@
         <f t="shared" si="3"/>
         <v>0.48200000000000004</v>
       </c>
-      <c r="V46" s="13">
+      <c r="V46" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>5961</v>
+        <v>5961 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="W46" s="13">
         <f t="shared" si="9"/>
@@ -15316,9 +15412,9 @@
       <c r="G47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="30" t="str">
         <f>Albumin!K39</f>
-        <v>5962</v>
+        <v>5962 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="I47">
         <f t="shared" ref="I47:J47" si="124">B39</f>
@@ -15348,9 +15444,9 @@
         <f t="shared" si="3"/>
         <v>0.14450000000000002</v>
       </c>
-      <c r="V47" s="13">
+      <c r="V47" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>5962</v>
+        <v>5962 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="W47" s="13">
         <f t="shared" si="9"/>
@@ -15376,9 +15472,9 @@
       <c r="G48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="30" t="str">
         <f>Albumin!K40</f>
-        <v>5963</v>
+        <v>5963 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="I48">
         <f t="shared" ref="I48:J48" si="127">B51</f>
@@ -15408,9 +15504,9 @@
         <f t="shared" si="3"/>
         <v>0.42850000000000005</v>
       </c>
-      <c r="V48" s="13">
+      <c r="V48" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>5963</v>
+        <v>5963 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="W48" s="13">
         <f t="shared" si="9"/>
@@ -15496,9 +15592,9 @@
       <c r="G50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H50" s="30" t="str">
         <f>Albumin!K42</f>
-        <v>5958</v>
+        <v>5958 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="I50">
         <f t="shared" ref="I50:J50" si="133">B75</f>
@@ -15528,9 +15624,9 @@
         <f t="shared" si="3"/>
         <v>0.10000000000000002</v>
       </c>
-      <c r="V50" s="13">
+      <c r="V50" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>5958</v>
+        <v>5958 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="W50" s="13">
         <f t="shared" si="9"/>
@@ -15556,9 +15652,9 @@
       <c r="G51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="30" t="str">
         <f>Albumin!K43</f>
-        <v>5961</v>
+        <v>5961 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="I51">
         <f t="shared" ref="I51:J51" si="136">B87</f>
@@ -15588,9 +15684,9 @@
         <f t="shared" si="3"/>
         <v>0.3795</v>
       </c>
-      <c r="V51" s="13">
+      <c r="V51" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>5961</v>
+        <v>5961 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="W51" s="13">
         <f t="shared" si="9"/>
@@ -15617,9 +15713,9 @@
       <c r="G52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H52" s="30">
+      <c r="H52" s="30" t="str">
         <f>Albumin!K44</f>
-        <v>5962</v>
+        <v>5962 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="I52">
         <f t="shared" ref="I52:J52" si="139">B99</f>
@@ -15649,9 +15745,9 @@
         <f t="shared" si="3"/>
         <v>9.5000000000000015E-2</v>
       </c>
-      <c r="V52" s="13">
+      <c r="V52" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>5962</v>
+        <v>5962 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="W52" s="13">
         <f t="shared" si="9"/>
@@ -21119,7 +21215,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D29"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21193,9 +21289,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" t="str">
         <f>'Cre '!V14</f>
-        <v>6445</v>
+        <v>6445 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="B4">
         <f>Albumin!R6</f>
@@ -21223,9 +21319,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" t="str">
         <f>'Cre '!V15</f>
-        <v>6446</v>
+        <v>6446 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="B5">
         <f>Albumin!R7</f>
@@ -21255,7 +21351,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>'Cre '!V16</f>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D7 (7/24)</v>
       </c>
       <c r="B6">
         <f>Albumin!R8</f>
@@ -21283,9 +21379,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>'Cre '!V17</f>
-        <v>6464</v>
+        <v>6464 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="B7">
         <f>Albumin!R9</f>
@@ -21313,9 +21409,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>'Cre '!V18</f>
-        <v>6465</v>
+        <v>6465 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="B8">
         <f>Albumin!R10</f>
@@ -21345,7 +21441,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>'Cre '!V19</f>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2 - D7 (7/24)</v>
       </c>
       <c r="B9">
         <f>Albumin!R11</f>
@@ -21373,9 +21469,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>'Cre '!V20</f>
-        <v>6606</v>
+        <v>6606 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="B10">
         <f>Albumin!R12</f>
@@ -21403,9 +21499,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>'Cre '!V21</f>
-        <v>6607</v>
+        <v>6607 G0-76/G1 - D7 (7/24)</v>
       </c>
       <c r="B11">
         <f>Albumin!R13</f>
@@ -21463,9 +21559,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>'Cre '!V23</f>
-        <v>6445</v>
+        <v>6445 - G0-76/G1 - D14 (7/31)</v>
       </c>
       <c r="B13">
         <f>Albumin!R15</f>
@@ -21493,9 +21589,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>'Cre '!V24</f>
-        <v>6446</v>
+        <v>6446 - G0-76/G1 - D14 (7/31)</v>
       </c>
       <c r="B14">
         <f>Albumin!R16</f>
@@ -21525,7 +21621,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>'Cre '!V25</f>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="B15">
         <f>Albumin!R17</f>
@@ -21553,9 +21649,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" t="str">
         <f>'Cre '!V26</f>
-        <v>6464</v>
+        <v>6464 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="B16">
         <f>Albumin!R18</f>
@@ -21583,9 +21679,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" t="str">
         <f>'Cre '!V27</f>
-        <v>6465</v>
+        <v>6465 - G0-10/G1 - D14 (7/31)</v>
       </c>
       <c r="B17">
         <f>Albumin!R19</f>
@@ -21615,7 +21711,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Cre '!V28</f>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="B18">
         <f>Albumin!R20</f>
@@ -21643,9 +21739,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="A19" t="str">
         <f>'Cre '!V29</f>
-        <v>6606</v>
+        <v>6606 - G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="B19">
         <f>Albumin!R21</f>
@@ -21673,9 +21769,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="A20" t="str">
         <f>'Cre '!V30</f>
-        <v>6607</v>
+        <v>6607- G0-76/G2  - D14 (7/31)</v>
       </c>
       <c r="B20">
         <f>Albumin!R22</f>
@@ -21733,9 +21829,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="A22" t="str">
         <f>'Cre '!V32</f>
-        <v>6445</v>
+        <v>6445 - G0-76/G1 - D21 (8/7)</v>
       </c>
       <c r="B22">
         <f>Albumin!R24</f>
@@ -21763,9 +21859,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="A23" t="str">
         <f>'Cre '!V33</f>
-        <v>6446</v>
+        <v>6446 - G0-76/G1 - D21 (8/7)</v>
       </c>
       <c r="B23">
         <f>Albumin!R25</f>
@@ -21795,7 +21891,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Cre '!V34</f>
-        <v xml:space="preserve">6463 - G0-10/G1 </v>
+        <v>6463 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="B24">
         <f>Albumin!R26</f>
@@ -21823,9 +21919,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="A25" t="str">
         <f>'Cre '!V35</f>
-        <v>6464</v>
+        <v>6464 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="B25">
         <f>Albumin!R27</f>
@@ -21853,9 +21949,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26">
+      <c r="A26" t="str">
         <f>'Cre '!V36</f>
-        <v>6465</v>
+        <v>6465 - G0-10/G1 - D21 (8/7)</v>
       </c>
       <c r="B26">
         <f>Albumin!R28</f>
@@ -21885,7 +21981,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>'Cre '!V37</f>
-        <v xml:space="preserve">6605 - G0-76/G2 </v>
+        <v>6605 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="B27">
         <f>Albumin!R29</f>
@@ -21913,9 +22009,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="A28" t="str">
         <f>'Cre '!V38</f>
-        <v>6606</v>
+        <v>6606 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="B28">
         <f>Albumin!R30</f>
@@ -21943,9 +22039,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="A29" t="str">
         <f>'Cre '!V39</f>
-        <v>6607</v>
+        <v>6607 - G0-76/G2 - D21 (8/7)</v>
       </c>
       <c r="B29">
         <f>Albumin!R31</f>
@@ -22003,9 +22099,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="A31" t="str">
         <f>'Cre '!V41</f>
-        <v>5958</v>
+        <v>5958 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="B31">
         <f>Albumin!R33</f>
@@ -22033,9 +22129,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="A32" t="str">
         <f>'Cre '!V42</f>
-        <v>5961</v>
+        <v>5961 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="B32">
         <f>Albumin!R34</f>
@@ -22063,9 +22159,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="A33" t="str">
         <f>'Cre '!V43</f>
-        <v>5962</v>
+        <v>5962 G0-76/G1 - D7 (5/3)</v>
       </c>
       <c r="B33">
         <f>Albumin!R35</f>
@@ -22123,9 +22219,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="A35" t="str">
         <f>'Cre '!V45</f>
-        <v>5958</v>
+        <v>5958 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="B35">
         <f>Albumin!R37</f>
@@ -22153,9 +22249,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36">
+      <c r="A36" t="str">
         <f>'Cre '!V46</f>
-        <v>5961</v>
+        <v>5961 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="B36">
         <f>Albumin!R38</f>
@@ -22183,9 +22279,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="A37" t="str">
         <f>'Cre '!V47</f>
-        <v>5962</v>
+        <v>5962 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="B37">
         <f>Albumin!R39</f>
@@ -22213,9 +22309,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38">
+      <c r="A38" t="str">
         <f>'Cre '!V48</f>
-        <v>5963</v>
+        <v>5963 - G0-76/G1 - D14 (5/10)</v>
       </c>
       <c r="B38">
         <f>Albumin!R40</f>
@@ -22273,9 +22369,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40">
+      <c r="A40" t="str">
         <f>'Cre '!V50</f>
-        <v>5958</v>
+        <v>5958 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="B40">
         <f>Albumin!R42</f>
@@ -22303,9 +22399,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41">
+      <c r="A41" t="str">
         <f>'Cre '!V51</f>
-        <v>5961</v>
+        <v>5961 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="B41">
         <f>Albumin!R43</f>
@@ -22333,9 +22429,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42">
+      <c r="A42" t="str">
         <f>'Cre '!V52</f>
-        <v>5962</v>
+        <v>5962 - G0-76/G1 - D21 (5/17)</v>
       </c>
       <c r="B42">
         <f>Albumin!R44</f>
